--- a/刘德慧/week07/result.xlsx
+++ b/刘德慧/week07/result.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$25</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="13">
   <si>
     <t>Model</t>
   </si>
@@ -38,19 +41,25 @@
     <t>Batch_size</t>
   </si>
   <si>
-    <t>Hidden_Size</t>
+    <t>pooling_style</t>
   </si>
   <si>
-    <t>num_layers</t>
+    <t>准确率</t>
   </si>
   <si>
-    <t>time(预测100条耗时）</t>
+    <t>time(预测360条耗时）</t>
   </si>
   <si>
     <t>Gated-CNN</t>
   </si>
   <si>
     <t>1e-3</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>max</t>
   </si>
   <si>
     <t>1e-4</t>
@@ -66,13 +75,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00000000_);[Red]\(0.00000000\)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,6 +97,20 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -231,7 +255,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -240,6 +264,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -425,12 +455,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -551,145 +596,166 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1216,220 +1282,448 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="10.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="15.2222222222222" customWidth="1"/>
-    <col min="3" max="3" width="11.8888888888889" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="11.8888888888889" customWidth="1"/>
-    <col min="6" max="7" width="23.1111111111111" customWidth="1"/>
+    <col min="1" max="1" width="10.7777777777778" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.2222222222222" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.8888888888889" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.2222222222222" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.1111111111111" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>64</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.694444444444444</v>
+      </c>
+      <c r="F2" s="4">
+        <v>20.5891647338867</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="F3" s="4">
+        <v>21.0508365631103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="2">
         <v>128</v>
       </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5">
-      <c r="B3" s="2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.680555555555555</v>
+      </c>
+      <c r="F4" s="4">
+        <v>18.6841025352478</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.697222222222222</v>
+      </c>
+      <c r="F5" s="4">
+        <v>18.9314513206481</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:6">
+      <c r="A6" s="2"/>
+      <c r="B6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2">
+        <v>64</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.541666666666666</v>
+      </c>
+      <c r="F6" s="4">
+        <v>20.3947546482086</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:6">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.605555555555555</v>
+      </c>
+      <c r="F7" s="4">
+        <v>21.0238251686096</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:6">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="2">
+        <v>128</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.413888888888888</v>
+      </c>
+      <c r="F8" s="7">
+        <v>18.849336862564</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:6">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.536111111111111</v>
+      </c>
+      <c r="F9" s="4">
+        <v>37.8710582256317</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C3">
+      <c r="C10" s="2">
+        <v>64</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.777777777777777</v>
+      </c>
+      <c r="F10" s="4">
+        <v>241.513273954391</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.777777777777777</v>
+      </c>
+      <c r="F11" s="4">
+        <v>242.213222265243</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="2">
         <v>128</v>
       </c>
-      <c r="D3">
+      <c r="D12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.769444444444444</v>
+      </c>
+      <c r="F12" s="4">
+        <v>227.828368425369</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.794444444444444</v>
+      </c>
+      <c r="F13" s="4">
+        <v>223.674826145172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2"/>
+      <c r="B14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2">
+        <v>64</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.791666666666666</v>
+      </c>
+      <c r="F14" s="6">
+        <v>248.413340806961</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.788888888888888</v>
+      </c>
+      <c r="F15" s="4">
+        <v>244.792579174041</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="2">
         <v>128</v>
       </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4">
+      <c r="E16" s="4">
+        <v>0.780555555555555</v>
+      </c>
+      <c r="F16" s="4">
+        <v>218.809149980545</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0.811111111111111</v>
+      </c>
+      <c r="F17" s="4">
+        <v>218.121754884719</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="2">
         <v>64</v>
       </c>
-      <c r="D4">
+      <c r="D18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="F18" s="4">
+        <v>44.017436504364</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.636111111111111</v>
+      </c>
+      <c r="F19" s="4">
+        <v>42.884616613388</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="2">
         <v>128</v>
       </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5">
+      <c r="E20" s="4">
+        <v>0.622222222222222</v>
+      </c>
+      <c r="F20" s="4">
+        <v>38.8987991809845</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.588888888888888</v>
+      </c>
+      <c r="F21" s="4">
+        <v>39.6979231834411</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2"/>
+      <c r="B22" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="2">
+        <v>64</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0.511111111111111</v>
+      </c>
+      <c r="F22" s="4">
+        <v>42.4503223896026</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0.511111111111111</v>
+      </c>
+      <c r="F23" s="4">
+        <v>42.6155178546905</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="2">
         <v>128</v>
       </c>
-      <c r="D5">
-        <v>128</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
+      <c r="D24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.430555555555555</v>
+      </c>
+      <c r="F24" s="4">
+        <v>38.8655939102172</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>64</v>
-      </c>
-      <c r="D6">
-        <v>128</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>128</v>
-      </c>
-      <c r="D7">
-        <v>128</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>64</v>
-      </c>
-      <c r="D8">
-        <v>128</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>128</v>
-      </c>
-      <c r="D9">
-        <v>128</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <v>64</v>
-      </c>
-      <c r="D10">
-        <v>128</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11">
-        <v>128</v>
-      </c>
-      <c r="D11">
-        <v>128</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12">
-        <v>64</v>
-      </c>
-      <c r="D12">
-        <v>128</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13">
-        <v>128</v>
-      </c>
-      <c r="D13">
-        <v>128</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
+      <c r="E25" s="6">
+        <v>0.413888888888888</v>
+      </c>
+      <c r="F25" s="4">
+        <v>39.5615055561065</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F25" etc:filterBottomFollowUsedRange="0">
+    <extLst/>
+  </autoFilter>
+  <mergeCells count="21">
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A17"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
